--- a/Input/560121.xlsx
+++ b/Input/560121.xlsx
@@ -12,56 +12,56 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108267405K">Data1!$K$1:$K$10,Data1!$K$215:$K$243</definedName>
-    <definedName name="A108267405K_Data">Data1!$K$215:$K$243</definedName>
-    <definedName name="A108267405K_Latest">Data1!$K$243</definedName>
-    <definedName name="A108267406L">Data1!$C$1:$C$10,Data1!$C$215:$C$243</definedName>
-    <definedName name="A108267406L_Data">Data1!$C$215:$C$243</definedName>
-    <definedName name="A108267406L_Latest">Data1!$C$243</definedName>
-    <definedName name="A108267762J">Data1!$J$1:$J$10,Data1!$J$11:$J$243</definedName>
-    <definedName name="A108267762J_Data">Data1!$J$11:$J$243</definedName>
-    <definedName name="A108267762J_Latest">Data1!$J$243</definedName>
-    <definedName name="A108267763K">Data1!$B$1:$B$10,Data1!$B$215:$B$243</definedName>
-    <definedName name="A108267763K_Data">Data1!$B$215:$B$243</definedName>
-    <definedName name="A108267763K_Latest">Data1!$B$243</definedName>
-    <definedName name="A108271899X">Data1!$P$1:$P$10,Data1!$P$11:$P$243</definedName>
-    <definedName name="A108271899X_Data">Data1!$P$11:$P$243</definedName>
-    <definedName name="A108271899X_Latest">Data1!$P$243</definedName>
-    <definedName name="A108271900W">Data1!$H$1:$H$10,Data1!$H$215:$H$243</definedName>
-    <definedName name="A108271900W_Data">Data1!$H$215:$H$243</definedName>
-    <definedName name="A108271900W_Latest">Data1!$H$243</definedName>
-    <definedName name="A108276638T">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108276638T_Data">Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108276638T_Latest">Data1!$Q$243</definedName>
-    <definedName name="A108276639V">Data1!$I$1:$I$10,Data1!$I$215:$I$243</definedName>
-    <definedName name="A108276639V_Data">Data1!$I$215:$I$243</definedName>
-    <definedName name="A108276639V_Latest">Data1!$I$243</definedName>
-    <definedName name="A108276792R">Data1!$L$1:$L$10,Data1!$L$215:$L$243</definedName>
-    <definedName name="A108276792R_Data">Data1!$L$215:$L$243</definedName>
-    <definedName name="A108276792R_Latest">Data1!$L$243</definedName>
-    <definedName name="A108276793T">Data1!$D$1:$D$10,Data1!$D$215:$D$243</definedName>
-    <definedName name="A108276793T_Data">Data1!$D$215:$D$243</definedName>
-    <definedName name="A108276793T_Latest">Data1!$D$243</definedName>
-    <definedName name="A108290225J">Data1!$M$1:$M$10,Data1!$M$215:$M$243</definedName>
-    <definedName name="A108290225J_Data">Data1!$M$215:$M$243</definedName>
-    <definedName name="A108290225J_Latest">Data1!$M$243</definedName>
-    <definedName name="A108290226K">Data1!$E$1:$E$10,Data1!$E$215:$E$243</definedName>
-    <definedName name="A108290226K_Data">Data1!$E$215:$E$243</definedName>
-    <definedName name="A108290226K_Latest">Data1!$E$243</definedName>
-    <definedName name="A108294929C">Data1!$N$1:$N$10,Data1!$N$215:$N$243</definedName>
-    <definedName name="A108294929C_Data">Data1!$N$215:$N$243</definedName>
-    <definedName name="A108294929C_Latest">Data1!$N$243</definedName>
-    <definedName name="A108294930L">Data1!$F$1:$F$10,Data1!$F$215:$F$243</definedName>
-    <definedName name="A108294930L_Data">Data1!$F$215:$F$243</definedName>
-    <definedName name="A108294930L_Latest">Data1!$F$243</definedName>
-    <definedName name="A108299423K">Data1!$O$1:$O$10,Data1!$O$215:$O$243</definedName>
-    <definedName name="A108299423K_Data">Data1!$O$215:$O$243</definedName>
-    <definedName name="A108299423K_Latest">Data1!$O$243</definedName>
-    <definedName name="A108299424L">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108299424L_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108299424L_Latest">Data1!$G$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108267405K">Data1!$K$1:$K$10,Data1!$K$215:$K$245</definedName>
+    <definedName name="A108267405K_Data">Data1!$K$215:$K$245</definedName>
+    <definedName name="A108267405K_Latest">Data1!$K$245</definedName>
+    <definedName name="A108267406L">Data1!$C$1:$C$10,Data1!$C$215:$C$245</definedName>
+    <definedName name="A108267406L_Data">Data1!$C$215:$C$245</definedName>
+    <definedName name="A108267406L_Latest">Data1!$C$245</definedName>
+    <definedName name="A108267762J">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
+    <definedName name="A108267762J_Data">Data1!$J$11:$J$245</definedName>
+    <definedName name="A108267762J_Latest">Data1!$J$245</definedName>
+    <definedName name="A108267763K">Data1!$B$1:$B$10,Data1!$B$215:$B$245</definedName>
+    <definedName name="A108267763K_Data">Data1!$B$215:$B$245</definedName>
+    <definedName name="A108267763K_Latest">Data1!$B$245</definedName>
+    <definedName name="A108271899X">Data1!$P$1:$P$10,Data1!$P$11:$P$245</definedName>
+    <definedName name="A108271899X_Data">Data1!$P$11:$P$245</definedName>
+    <definedName name="A108271899X_Latest">Data1!$P$245</definedName>
+    <definedName name="A108271900W">Data1!$H$1:$H$10,Data1!$H$215:$H$245</definedName>
+    <definedName name="A108271900W_Data">Data1!$H$215:$H$245</definedName>
+    <definedName name="A108271900W_Latest">Data1!$H$245</definedName>
+    <definedName name="A108276638T">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108276638T_Data">Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108276638T_Latest">Data1!$Q$245</definedName>
+    <definedName name="A108276639V">Data1!$I$1:$I$10,Data1!$I$215:$I$245</definedName>
+    <definedName name="A108276639V_Data">Data1!$I$215:$I$245</definedName>
+    <definedName name="A108276639V_Latest">Data1!$I$245</definedName>
+    <definedName name="A108276792R">Data1!$L$1:$L$10,Data1!$L$215:$L$245</definedName>
+    <definedName name="A108276792R_Data">Data1!$L$215:$L$245</definedName>
+    <definedName name="A108276792R_Latest">Data1!$L$245</definedName>
+    <definedName name="A108276793T">Data1!$D$1:$D$10,Data1!$D$215:$D$245</definedName>
+    <definedName name="A108276793T_Data">Data1!$D$215:$D$245</definedName>
+    <definedName name="A108276793T_Latest">Data1!$D$245</definedName>
+    <definedName name="A108290225J">Data1!$M$1:$M$10,Data1!$M$215:$M$245</definedName>
+    <definedName name="A108290225J_Data">Data1!$M$215:$M$245</definedName>
+    <definedName name="A108290225J_Latest">Data1!$M$245</definedName>
+    <definedName name="A108290226K">Data1!$E$1:$E$10,Data1!$E$215:$E$245</definedName>
+    <definedName name="A108290226K_Data">Data1!$E$215:$E$245</definedName>
+    <definedName name="A108290226K_Latest">Data1!$E$245</definedName>
+    <definedName name="A108294929C">Data1!$N$1:$N$10,Data1!$N$215:$N$245</definedName>
+    <definedName name="A108294929C_Data">Data1!$N$215:$N$245</definedName>
+    <definedName name="A108294929C_Latest">Data1!$N$245</definedName>
+    <definedName name="A108294930L">Data1!$F$1:$F$10,Data1!$F$215:$F$245</definedName>
+    <definedName name="A108294930L_Data">Data1!$F$215:$F$245</definedName>
+    <definedName name="A108294930L_Latest">Data1!$F$245</definedName>
+    <definedName name="A108299423K">Data1!$O$1:$O$10,Data1!$O$215:$O$245</definedName>
+    <definedName name="A108299423K_Data">Data1!$O$215:$O$245</definedName>
+    <definedName name="A108299423K_Latest">Data1!$O$245</definedName>
+    <definedName name="A108299424L">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108299424L_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108299424L_Latest">Data1!$G$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2764,6 +2764,201 @@
       </text>
     </comment>
     <comment ref="L243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2948,7 +3143,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -3650,10 +3845,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>25</v>
@@ -3682,10 +3877,10 @@
         <v>43647</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>25</v>
@@ -3714,10 +3909,10 @@
         <v>43647</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>25</v>
@@ -3746,10 +3941,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>25</v>
@@ -3778,10 +3973,10 @@
         <v>43647</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>25</v>
@@ -3810,10 +4005,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>25</v>
@@ -3842,10 +4037,10 @@
         <v>43647</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>25</v>
@@ -3874,10 +4069,10 @@
         <v>43647</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>25</v>
@@ -3906,10 +4101,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>37</v>
@@ -3938,10 +4133,10 @@
         <v>43647</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>37</v>
@@ -3970,10 +4165,10 @@
         <v>43647</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>37</v>
@@ -4002,10 +4197,10 @@
         <v>43647</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>37</v>
@@ -4034,10 +4229,10 @@
         <v>43647</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>37</v>
@@ -4066,10 +4261,10 @@
         <v>43647</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>37</v>
@@ -4098,10 +4293,10 @@
         <v>37438</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>37</v>
@@ -4130,10 +4325,10 @@
         <v>43647</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>37</v>
@@ -4184,7 +4379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q243"/>
+  <dimension ref="A1:Q245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -4571,52 +4766,52 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4624,52 +4819,52 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -8094,6 +8289,82 @@
       </c>
       <c r="Q243" s="9">
         <v>19.2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A244" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>104</v>
+      </c>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="8">
+        <v>91</v>
+      </c>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8">
+        <v>10</v>
+      </c>
+      <c r="H244" s="8">
+        <v>71</v>
+      </c>
+      <c r="I244" s="8">
+        <v>47</v>
+      </c>
+      <c r="J244" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="K244" s="9"/>
+      <c r="L244" s="9"/>
+      <c r="M244" s="9">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N244" s="9"/>
+      <c r="O244" s="9"/>
+      <c r="P244" s="9">
+        <v>27.4</v>
+      </c>
+      <c r="Q244" s="9">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A245" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>75</v>
+      </c>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8">
+        <v>62</v>
+      </c>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="8">
+        <v>55</v>
+      </c>
+      <c r="I245" s="8">
+        <v>39</v>
+      </c>
+      <c r="J245" s="9">
+        <v>27.8</v>
+      </c>
+      <c r="K245" s="9"/>
+      <c r="L245" s="9"/>
+      <c r="M245" s="9">
+        <v>24.8</v>
+      </c>
+      <c r="N245" s="9"/>
+      <c r="O245" s="9"/>
+      <c r="P245" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="Q245" s="9">
+        <v>13.2</v>
       </c>
     </row>
   </sheetData>
